--- a/Data/Cleaned data/Andamento mensile per settore (Teatro).xlsx
+++ b/Data/Cleaned data/Andamento mensile per settore (Teatro).xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertocalabrese99/Desktop/Statistical learning/Statistical_Learning_Project/Data/Cleaned data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AAFDBB-A058-6949-9CCC-D32167861632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD158F9-9099-D543-9279-37DBE5536C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23540" yWindow="4460" windowWidth="33600" windowHeight="19440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numero spettacoli" sheetId="2" r:id="rId1"/>
     <sheet name="Ingressi" sheetId="3" r:id="rId2"/>
     <sheet name="Spesa del pubblico" sheetId="4" r:id="rId3"/>
+    <sheet name="Corretto" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Mese evento</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>Dicembre</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Numero spettacoli</t>
+  </si>
+  <si>
+    <t>Ingressi</t>
+  </si>
+  <si>
+    <t>Spesa del pubblico</t>
   </si>
 </sst>
 </file>
@@ -118,8 +130,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,7 +427,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -668,7 +681,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F13"/>
+      <selection activeCell="B2" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -921,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D572D05-9EC1-4553-8078-8E4ECFE9446F}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1190,4 +1203,831 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6023D351-2A14-524F-888A-2D1D38EC8A5C}">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B2">
+        <v>14048</v>
+      </c>
+      <c r="C2">
+        <v>2557873</v>
+      </c>
+      <c r="D2">
+        <v>38990026.829999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B3">
+        <v>14911</v>
+      </c>
+      <c r="C3">
+        <v>2734855</v>
+      </c>
+      <c r="D3">
+        <v>37233797.500000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B4">
+        <v>16203</v>
+      </c>
+      <c r="C4">
+        <v>2973107</v>
+      </c>
+      <c r="D4">
+        <v>40538564.569999978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B5">
+        <v>13106</v>
+      </c>
+      <c r="C5">
+        <v>2173417</v>
+      </c>
+      <c r="D5">
+        <v>31807364.410000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B6">
+        <v>10938</v>
+      </c>
+      <c r="C6">
+        <v>1651762</v>
+      </c>
+      <c r="D6">
+        <v>28185285.089999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B7">
+        <v>8489</v>
+      </c>
+      <c r="C7">
+        <v>1293711</v>
+      </c>
+      <c r="D7">
+        <v>31427737.800000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B8">
+        <v>7336</v>
+      </c>
+      <c r="C8">
+        <v>1140402</v>
+      </c>
+      <c r="D8">
+        <v>43536833.089999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B9">
+        <v>5295</v>
+      </c>
+      <c r="C9">
+        <v>831804</v>
+      </c>
+      <c r="D9">
+        <v>29351240.070000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B10">
+        <v>5940</v>
+      </c>
+      <c r="C10">
+        <v>640135</v>
+      </c>
+      <c r="D10">
+        <v>41239398.109999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B11">
+        <v>10364</v>
+      </c>
+      <c r="C11">
+        <v>1416863</v>
+      </c>
+      <c r="D11">
+        <v>42491218.230000012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B12">
+        <v>14536</v>
+      </c>
+      <c r="C12">
+        <v>2524772</v>
+      </c>
+      <c r="D12">
+        <v>42542731.300000012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B13">
+        <v>14640</v>
+      </c>
+      <c r="C13">
+        <v>2752923</v>
+      </c>
+      <c r="D13">
+        <v>52612956.360000029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B14">
+        <v>13353</v>
+      </c>
+      <c r="C14">
+        <v>2703477</v>
+      </c>
+      <c r="D14">
+        <v>47919487.549999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43497</v>
+      </c>
+      <c r="B15">
+        <v>14981</v>
+      </c>
+      <c r="C15">
+        <v>3053040</v>
+      </c>
+      <c r="D15">
+        <v>43509811.680000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B16">
+        <v>17129</v>
+      </c>
+      <c r="C16">
+        <v>3272010</v>
+      </c>
+      <c r="D16">
+        <v>43349471.219999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B17">
+        <v>10621</v>
+      </c>
+      <c r="C17">
+        <v>1794711</v>
+      </c>
+      <c r="D17">
+        <v>25812150.910000011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B18">
+        <v>11156</v>
+      </c>
+      <c r="C18">
+        <v>1747340</v>
+      </c>
+      <c r="D18">
+        <v>26245363.179999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B19">
+        <v>8444</v>
+      </c>
+      <c r="C19">
+        <v>1314409</v>
+      </c>
+      <c r="D19">
+        <v>31951599.989999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B20">
+        <v>6603</v>
+      </c>
+      <c r="C20">
+        <v>998253</v>
+      </c>
+      <c r="D20">
+        <v>39053084.380000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B21">
+        <v>4976</v>
+      </c>
+      <c r="C21">
+        <v>892017</v>
+      </c>
+      <c r="D21">
+        <v>30347584.98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B22">
+        <v>5633</v>
+      </c>
+      <c r="C22">
+        <v>675616</v>
+      </c>
+      <c r="D22">
+        <v>45793519.530000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B23">
+        <v>10309</v>
+      </c>
+      <c r="C23">
+        <v>1500830</v>
+      </c>
+      <c r="D23">
+        <v>48884917.219999991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B24">
+        <v>14859</v>
+      </c>
+      <c r="C24">
+        <v>2579042</v>
+      </c>
+      <c r="D24">
+        <v>44371790.359999992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B25">
+        <v>14137</v>
+      </c>
+      <c r="C25">
+        <v>2797637</v>
+      </c>
+      <c r="D25">
+        <v>57994067.570000015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B26">
+        <v>13697</v>
+      </c>
+      <c r="C26">
+        <v>2756682</v>
+      </c>
+      <c r="D26">
+        <v>46002045.609999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B27">
+        <v>13225</v>
+      </c>
+      <c r="C27">
+        <v>2716268</v>
+      </c>
+      <c r="D27">
+        <v>36430573.399999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B28">
+        <v>477</v>
+      </c>
+      <c r="C28">
+        <v>80448</v>
+      </c>
+      <c r="D28">
+        <v>1364026.6199999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D29">
+        <v>74865.259999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43952</v>
+      </c>
+      <c r="D30">
+        <v>57814.53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B31">
+        <v>827</v>
+      </c>
+      <c r="C31">
+        <v>38099</v>
+      </c>
+      <c r="D31">
+        <v>1139897.1499999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B32">
+        <v>4834</v>
+      </c>
+      <c r="C32">
+        <v>314592</v>
+      </c>
+      <c r="D32">
+        <v>6785651.0000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B33">
+        <v>4862</v>
+      </c>
+      <c r="C33">
+        <v>430722</v>
+      </c>
+      <c r="D33">
+        <v>9519323.2599999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B34">
+        <v>4227</v>
+      </c>
+      <c r="C34">
+        <v>303784</v>
+      </c>
+      <c r="D34">
+        <v>7941193.8100000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B35">
+        <v>4378</v>
+      </c>
+      <c r="C35">
+        <v>262140</v>
+      </c>
+      <c r="D35">
+        <v>4776139.0399999991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>44136</v>
+      </c>
+      <c r="D36">
+        <v>37522</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>44166</v>
+      </c>
+      <c r="D37">
+        <v>69800.600000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>44197</v>
+      </c>
+      <c r="D38">
+        <v>77648.84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>44228</v>
+      </c>
+      <c r="D39">
+        <v>6286.54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>44256</v>
+      </c>
+      <c r="D40">
+        <v>49324.959999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B41">
+        <v>60</v>
+      </c>
+      <c r="C41">
+        <v>3788</v>
+      </c>
+      <c r="D41">
+        <v>86016.709999999992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B42">
+        <v>3461</v>
+      </c>
+      <c r="C42">
+        <v>233234</v>
+      </c>
+      <c r="D42">
+        <v>2418386.84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B43">
+        <v>7260</v>
+      </c>
+      <c r="C43">
+        <v>483472</v>
+      </c>
+      <c r="D43">
+        <v>6709532.669999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B44">
+        <v>10228</v>
+      </c>
+      <c r="C44">
+        <v>838959</v>
+      </c>
+      <c r="D44">
+        <v>18030715.34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B45">
+        <v>7318</v>
+      </c>
+      <c r="C45">
+        <v>721574</v>
+      </c>
+      <c r="D45">
+        <v>17119925.270000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B46">
+        <v>8068</v>
+      </c>
+      <c r="C46">
+        <v>578038</v>
+      </c>
+      <c r="D46">
+        <v>16288714.460000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B47">
+        <v>9074</v>
+      </c>
+      <c r="C47">
+        <v>861013</v>
+      </c>
+      <c r="D47">
+        <v>19633424.379999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B48">
+        <v>10813</v>
+      </c>
+      <c r="C48">
+        <v>1222266</v>
+      </c>
+      <c r="D48">
+        <v>22971482.030000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B49">
+        <v>11812</v>
+      </c>
+      <c r="C49">
+        <v>1398111</v>
+      </c>
+      <c r="D49">
+        <v>28891294.100000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B50">
+        <v>6356</v>
+      </c>
+      <c r="C50">
+        <v>983778</v>
+      </c>
+      <c r="D50">
+        <v>19269992.599999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B51">
+        <v>7940</v>
+      </c>
+      <c r="C51">
+        <v>1276450</v>
+      </c>
+      <c r="D51">
+        <v>20582183.030000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B52">
+        <v>11789</v>
+      </c>
+      <c r="C52">
+        <v>1860044</v>
+      </c>
+      <c r="D52">
+        <v>31916586.140000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B53">
+        <v>10480</v>
+      </c>
+      <c r="C53">
+        <v>1660376</v>
+      </c>
+      <c r="D53">
+        <v>27439343.019999988</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B54">
+        <v>11837</v>
+      </c>
+      <c r="C54">
+        <v>1822010</v>
+      </c>
+      <c r="D54">
+        <v>30965381.899999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B55">
+        <v>9530</v>
+      </c>
+      <c r="C55">
+        <v>1411919</v>
+      </c>
+      <c r="D55">
+        <v>26838089.020000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B56">
+        <v>9531</v>
+      </c>
+      <c r="C56">
+        <v>1359619</v>
+      </c>
+      <c r="D56">
+        <v>36162022.699999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B57">
+        <v>6927</v>
+      </c>
+      <c r="C57">
+        <v>1024471</v>
+      </c>
+      <c r="D57">
+        <v>26804926.340000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B58">
+        <v>8197</v>
+      </c>
+      <c r="C58">
+        <v>977016</v>
+      </c>
+      <c r="D58">
+        <v>29685883.100000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B59">
+        <v>11880</v>
+      </c>
+      <c r="C59">
+        <v>1613974</v>
+      </c>
+      <c r="D59">
+        <v>36457300.020000011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B60">
+        <v>14007</v>
+      </c>
+      <c r="C60">
+        <v>2187237</v>
+      </c>
+      <c r="D60">
+        <v>38729827.100000009</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B61">
+        <v>15292</v>
+      </c>
+      <c r="C61">
+        <v>2665646</v>
+      </c>
+      <c r="D61">
+        <v>52970629.560000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>